--- a/Code/Results/Cases/Case_2_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_231/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.53206992062627</v>
+        <v>1.185992460493708</v>
       </c>
       <c r="C2">
-        <v>0.3288537108006437</v>
+        <v>0.2018160463589993</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0922025783428424</v>
+        <v>0.2228484590543829</v>
       </c>
       <c r="F2">
-        <v>1.045180307589419</v>
+        <v>1.769493182683249</v>
       </c>
       <c r="G2">
-        <v>0.0007933095016808834</v>
+        <v>0.002435500124603581</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3032853970771505</v>
+        <v>0.7229978485463384</v>
       </c>
       <c r="J2">
-        <v>0.03684867850146034</v>
+        <v>0.03134599805285987</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.478500101180984</v>
+        <v>0.5403205836999803</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7661404568154992</v>
+        <v>1.215414870328779</v>
       </c>
       <c r="O2">
-        <v>1.575901919411677</v>
+        <v>2.768054110926158</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.203050496906599</v>
+        <v>1.089623443391474</v>
       </c>
       <c r="C3">
-        <v>0.2984475927067365</v>
+        <v>0.1916701541959895</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08919796657697532</v>
+        <v>0.223208674916858</v>
       </c>
       <c r="F3">
-        <v>0.9790324445898051</v>
+        <v>1.765991188807732</v>
       </c>
       <c r="G3">
-        <v>0.0007973179850269499</v>
+        <v>0.002438205388448357</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3029072578210901</v>
+        <v>0.7294918815187863</v>
       </c>
       <c r="J3">
-        <v>0.03445174243571003</v>
+        <v>0.03054146774887556</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4276989583042479</v>
+        <v>0.5286973746315198</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7803100156723985</v>
+        <v>1.223174187351205</v>
       </c>
       <c r="O3">
-        <v>1.495423012214275</v>
+        <v>2.77300894922729</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.001415540515495</v>
+        <v>1.030617253160074</v>
       </c>
       <c r="C4">
-        <v>0.2797422731323138</v>
+        <v>0.1853848362532631</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08745046025052972</v>
+        <v>0.2235024210391394</v>
       </c>
       <c r="F4">
-        <v>0.9401875842848852</v>
+        <v>1.764805780481467</v>
       </c>
       <c r="G4">
-        <v>0.0007998619285183503</v>
+        <v>0.002439956057839818</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.303465957288541</v>
+        <v>0.7338986525173006</v>
       </c>
       <c r="J4">
-        <v>0.03297918278708423</v>
+        <v>0.03004670748128646</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3968215713516088</v>
+        <v>0.5217619443411508</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7899706532641915</v>
+        <v>1.228402972053473</v>
       </c>
       <c r="O4">
-        <v>1.449641562584162</v>
+        <v>2.777827604818015</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.91931877573117</v>
+        <v>1.006614844690176</v>
       </c>
       <c r="C5">
-        <v>0.2721084961089701</v>
+        <v>0.1828096328717947</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0867620050919431</v>
+        <v>0.2236404153005598</v>
       </c>
       <c r="F5">
-        <v>0.924778646585537</v>
+        <v>1.764565442499446</v>
       </c>
       <c r="G5">
-        <v>0.0008009197758501812</v>
+        <v>0.002440692074447609</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.303883486004942</v>
+        <v>0.7357998420550516</v>
       </c>
       <c r="J5">
-        <v>0.03237885037185606</v>
+        <v>0.02984491084898977</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3843117510723175</v>
+        <v>0.5189865713680462</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7941417512816997</v>
+        <v>1.23065070315684</v>
       </c>
       <c r="O5">
-        <v>1.431846876431422</v>
+        <v>2.780237594672542</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.90569024980465</v>
+        <v>1.002631914665017</v>
       </c>
       <c r="C6">
-        <v>0.2708401751512923</v>
+        <v>0.1823811872357055</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08664909418175348</v>
+        <v>0.2236644350539407</v>
       </c>
       <c r="F6">
-        <v>0.9222447178013056</v>
+        <v>1.764540197880066</v>
       </c>
       <c r="G6">
-        <v>0.0008010967196590814</v>
+        <v>0.002440815656518748</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3039640274075595</v>
+        <v>0.7361218966840823</v>
       </c>
       <c r="J6">
-        <v>0.03227914917463437</v>
+        <v>0.02981139243749453</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3822387376507947</v>
+        <v>0.5185288029784516</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7948483071490102</v>
+        <v>1.231031005671774</v>
       </c>
       <c r="O6">
-        <v>1.428942653537689</v>
+        <v>2.780664720301445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.000308099482822</v>
+        <v>1.030293371603307</v>
       </c>
       <c r="C7">
-        <v>0.2796393695140438</v>
+        <v>0.1853501622200184</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08744108071448409</v>
+        <v>0.2235042079658474</v>
       </c>
       <c r="F7">
-        <v>0.939978102215079</v>
+        <v>1.764801556266562</v>
       </c>
       <c r="G7">
-        <v>0.0007998761087487408</v>
+        <v>0.002439965892526898</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3034708311217109</v>
+        <v>0.7339238659782019</v>
       </c>
       <c r="J7">
-        <v>0.03297108757156053</v>
+        <v>0.03004398667859576</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3966525720270937</v>
+        <v>0.5217243083678511</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7900259666826557</v>
+        <v>1.228432811980596</v>
       </c>
       <c r="O7">
-        <v>1.449398155253846</v>
+        <v>2.777858299981744</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.418528318772871</v>
+        <v>1.152731187773952</v>
       </c>
       <c r="C8">
-        <v>0.3183757413552257</v>
+        <v>0.1983293725892423</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09114588666593448</v>
+        <v>0.2229576237235555</v>
       </c>
       <c r="F8">
-        <v>1.021990002146538</v>
+        <v>1.768085505455261</v>
       </c>
       <c r="G8">
-        <v>0.0007946746863600254</v>
+        <v>0.002436414337999345</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3029853053822578</v>
+        <v>0.7251499011652882</v>
       </c>
       <c r="J8">
-        <v>0.03602235979583313</v>
+        <v>0.03106876700744365</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4609147141747627</v>
+        <v>0.5362712801052254</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7708223188121224</v>
+        <v>1.21799395645639</v>
       </c>
       <c r="O8">
-        <v>1.547366709983635</v>
+        <v>2.769393647389194</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.242976574467662</v>
+        <v>1.394078060659638</v>
       </c>
       <c r="C9">
-        <v>0.3941639581069296</v>
+        <v>0.2233354278049546</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09922210013303356</v>
+        <v>0.2224599033821306</v>
       </c>
       <c r="F9">
-        <v>1.198032889685791</v>
+        <v>1.782178690763473</v>
       </c>
       <c r="G9">
-        <v>0.0007851133818437474</v>
+        <v>0.002430157835330128</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3087372994505166</v>
+        <v>0.7112752933673541</v>
       </c>
       <c r="J9">
-        <v>0.04200168514876879</v>
+        <v>0.03307154319162819</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.589731016610429</v>
+        <v>0.5663852243118725</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7411287248874316</v>
+        <v>1.201203126200376</v>
       </c>
       <c r="O9">
-        <v>1.770791037517427</v>
+        <v>2.766907636500292</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.85328119880586</v>
+        <v>1.572091891930029</v>
       </c>
       <c r="C10">
-        <v>0.4499117668374879</v>
+        <v>0.2414314119836547</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1057075914642809</v>
+        <v>0.2224421351436447</v>
       </c>
       <c r="F10">
-        <v>1.338385235915752</v>
+        <v>1.797199893658757</v>
       </c>
       <c r="G10">
-        <v>0.00077845194037547</v>
+        <v>0.002425988559639066</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.317681474148273</v>
+        <v>0.7031171650943548</v>
       </c>
       <c r="J10">
-        <v>0.04639606420354525</v>
+        <v>0.03453807366788197</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6865322887279035</v>
+        <v>0.5894675297765417</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7246749450371439</v>
+        <v>1.191102509413597</v>
       </c>
       <c r="O10">
-        <v>1.9577031733875</v>
+        <v>2.773715526586045</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.132391642875689</v>
+        <v>1.653213790067866</v>
       </c>
       <c r="C11">
-        <v>0.4753296539804808</v>
+        <v>0.2496030770558946</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1087914134018106</v>
+        <v>0.2225091654238192</v>
       </c>
       <c r="F11">
-        <v>1.405039623851977</v>
+        <v>1.805047346032993</v>
       </c>
       <c r="G11">
-        <v>0.0007754942100766498</v>
+        <v>0.002424183736347953</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3229248499133348</v>
+        <v>0.6998488852668885</v>
       </c>
       <c r="J11">
-        <v>0.04839642394517796</v>
+        <v>0.03520401774877158</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7311473458110953</v>
+        <v>0.6001742262661338</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7184746120071708</v>
+        <v>1.186991424173286</v>
       </c>
       <c r="O11">
-        <v>2.04855391087392</v>
+        <v>2.778694398062385</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.238337732218383</v>
+        <v>1.683951595097881</v>
       </c>
       <c r="C12">
-        <v>0.4849668530610245</v>
+        <v>0.2526887040189649</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1099795722745007</v>
+        <v>0.222545310475649</v>
       </c>
       <c r="F12">
-        <v>1.430720393655733</v>
+        <v>1.808164780591838</v>
       </c>
       <c r="G12">
-        <v>0.0007743840962063351</v>
+        <v>0.002423513428689312</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3250927454674226</v>
+        <v>0.6986750477728876</v>
       </c>
       <c r="J12">
-        <v>0.04915417343836381</v>
+        <v>0.03545600661263393</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7481348233283427</v>
+        <v>0.6042580336418553</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7163222856474789</v>
+        <v>1.185504109590383</v>
       </c>
       <c r="O12">
-        <v>2.08387279165521</v>
+        <v>2.780850856539558</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.215508417756098</v>
+        <v>1.677330855470132</v>
       </c>
       <c r="C13">
-        <v>0.4828907142120329</v>
+        <v>0.2520245528175167</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1097227548820072</v>
+        <v>0.2225370479639039</v>
       </c>
       <c r="F13">
-        <v>1.425169393414805</v>
+        <v>1.807486903051071</v>
       </c>
       <c r="G13">
-        <v>0.0007746227468823909</v>
+        <v>0.002423657207928239</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3246175165251657</v>
+        <v>0.698925016023523</v>
       </c>
       <c r="J13">
-        <v>0.04899096603337583</v>
+        <v>0.0354017450399482</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7444719856210895</v>
+        <v>0.6033772087997704</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7167769467319758</v>
+        <v>1.185821341443869</v>
       </c>
       <c r="O13">
-        <v>2.076224205641864</v>
+        <v>2.780374361672671</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.141102578512459</v>
+        <v>1.655742243197381</v>
       </c>
       <c r="C14">
-        <v>0.47612224950052</v>
+        <v>0.2498571106898169</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1088887484226007</v>
+        <v>0.2225119236329007</v>
       </c>
       <c r="F14">
-        <v>1.407143355680518</v>
+        <v>1.80530089811765</v>
       </c>
       <c r="G14">
-        <v>0.0007754026847988108</v>
+        <v>0.002424128326751946</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3230994692280404</v>
+        <v>0.699751033938675</v>
       </c>
       <c r="J14">
-        <v>0.04845875892139517</v>
+        <v>0.03522475293410565</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7325430013713259</v>
+        <v>0.600509615618364</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7182935535959558</v>
+        <v>1.186867670277081</v>
       </c>
       <c r="O14">
-        <v>2.051440796048524</v>
+        <v>2.778866376029328</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.095561053472238</v>
+        <v>1.642520977403649</v>
       </c>
       <c r="C15">
-        <v>0.4719780463734082</v>
+        <v>0.2485283390753636</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.108380586095663</v>
+        <v>0.2224979346458191</v>
       </c>
       <c r="F15">
-        <v>1.396160341432292</v>
+        <v>1.80398088902416</v>
       </c>
       <c r="G15">
-        <v>0.0007758816942541366</v>
+        <v>0.002424418610016894</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3221937827260817</v>
+        <v>0.7002653040058462</v>
       </c>
       <c r="J15">
-        <v>0.04813280212152193</v>
+        <v>0.03511631489276112</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7252485192050244</v>
+        <v>0.5987569544659124</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.719248328427561</v>
+        <v>1.187517620405409</v>
       </c>
       <c r="O15">
-        <v>2.036381911363662</v>
+        <v>2.777978005617967</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.835073818458056</v>
+        <v>1.566793099694848</v>
       </c>
       <c r="C16">
-        <v>0.448252119655848</v>
+        <v>0.2408961496707036</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1055088427178532</v>
+        <v>0.2224392626866241</v>
       </c>
       <c r="F16">
-        <v>1.334088768943786</v>
+        <v>1.796707447114116</v>
       </c>
       <c r="G16">
-        <v>0.0007786466516673706</v>
+        <v>0.00242610835107173</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3173635707010547</v>
+        <v>0.7033396757043064</v>
       </c>
       <c r="J16">
-        <v>0.04626536828213546</v>
+        <v>0.03449452713729073</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6836290395833942</v>
+        <v>0.5887719528241888</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7251069140232076</v>
+        <v>1.191380904149852</v>
       </c>
       <c r="O16">
-        <v>1.951889608992758</v>
+        <v>2.773428053244629</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.675679976495076</v>
+        <v>1.520371725443738</v>
       </c>
       <c r="C17">
-        <v>0.4337143738760574</v>
+        <v>0.2361985105055453</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1037821394908072</v>
+        <v>0.2224224798152541</v>
       </c>
       <c r="F17">
-        <v>1.296754085619739</v>
+        <v>1.792505145277019</v>
       </c>
       <c r="G17">
-        <v>0.0007803610939358574</v>
+        <v>0.002427168421304415</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3147105079533787</v>
+        <v>0.7053392111452155</v>
       </c>
       <c r="J17">
-        <v>0.04512014464379988</v>
+        <v>0.03411276279211251</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6582517575114935</v>
+        <v>0.5826991583610095</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.729037491414644</v>
+        <v>1.193874729804492</v>
       </c>
       <c r="O17">
-        <v>1.901601772045211</v>
+        <v>2.771119131734736</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.584137547812588</v>
+        <v>1.493684899582092</v>
       </c>
       <c r="C18">
-        <v>0.4253578608151258</v>
+        <v>0.2334908861226666</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1028014798282584</v>
+        <v>0.2224198990855868</v>
       </c>
       <c r="F18">
-        <v>1.275542077218191</v>
+        <v>1.790183560995942</v>
       </c>
       <c r="G18">
-        <v>0.0007813540619518188</v>
+        <v>0.002427786790019949</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3132942398154235</v>
+        <v>0.7065309722175535</v>
       </c>
       <c r="J18">
-        <v>0.04446156378565291</v>
+        <v>0.03389307134806785</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6437093774755596</v>
+        <v>0.5792256949687982</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7314184713154575</v>
+        <v>1.195354649334199</v>
       </c>
       <c r="O18">
-        <v>1.873220659537878</v>
+        <v>2.769968210381222</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.553165157590911</v>
+        <v>1.484651575724286</v>
       </c>
       <c r="C19">
-        <v>0.4225292782348333</v>
+        <v>0.2325731619326916</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.102471556517699</v>
+        <v>0.2224202411656115</v>
       </c>
       <c r="F19">
-        <v>1.268403968801636</v>
+        <v>1.789413911408289</v>
       </c>
       <c r="G19">
-        <v>0.0007816914585168925</v>
+        <v>0.002427997645652661</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3128331632463599</v>
+        <v>0.7069416377268176</v>
       </c>
       <c r="J19">
-        <v>0.04423859858727752</v>
+        <v>0.03381866916362597</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.638794570986235</v>
+        <v>0.5780529883404597</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7322449576269889</v>
+        <v>1.195863548698767</v>
       </c>
       <c r="O19">
-        <v>1.863702290823227</v>
+        <v>2.769608933170218</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.692633294591246</v>
+        <v>1.525311973608154</v>
       </c>
       <c r="C20">
-        <v>0.435261376625192</v>
+        <v>0.2366991696702598</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1039646485738537</v>
+        <v>0.2224235347038359</v>
       </c>
       <c r="F20">
-        <v>1.300701063028271</v>
+        <v>1.792942607347939</v>
       </c>
       <c r="G20">
-        <v>0.0007801778817456675</v>
+        <v>0.002427054680755805</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3149814828006612</v>
+        <v>0.7051220426018219</v>
       </c>
       <c r="J20">
-        <v>0.04524204262637355</v>
+        <v>0.03415341385089121</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6609475620201835</v>
+        <v>0.5833436069415399</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7286065563635162</v>
+        <v>1.193604545612999</v>
       </c>
       <c r="O20">
-        <v>1.906898238211141</v>
+        <v>2.771346586967866</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.162950173488923</v>
+        <v>1.662082848599141</v>
       </c>
       <c r="C21">
-        <v>0.4781099551540819</v>
+        <v>0.2504939810356746</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1091331533804301</v>
+        <v>0.2225190114872859</v>
       </c>
       <c r="F21">
-        <v>1.412425789264745</v>
+        <v>1.805939025042292</v>
       </c>
       <c r="G21">
-        <v>0.0007751733333853155</v>
+        <v>0.002423989591559096</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3235402960003242</v>
+        <v>0.6995066804256709</v>
       </c>
       <c r="J21">
-        <v>0.04861507354707229</v>
+        <v>0.03527674510504397</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7360442386263486</v>
+        <v>0.601351101133119</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7178426902732369</v>
+        <v>1.186558453642448</v>
       </c>
       <c r="O21">
-        <v>2.058694780564537</v>
+        <v>2.779301947692204</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.471825289972344</v>
+        <v>1.751578707860745</v>
       </c>
       <c r="C22">
-        <v>0.5061858567302977</v>
+        <v>0.2594583012410681</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1126304780798577</v>
+        <v>0.2226441230099816</v>
       </c>
       <c r="F22">
-        <v>1.488029018616402</v>
+        <v>1.815282588000997</v>
       </c>
       <c r="G22">
-        <v>0.0007719600912099317</v>
+        <v>0.002422062939039792</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3302037420008972</v>
+        <v>0.6962085756855032</v>
       </c>
       <c r="J22">
-        <v>0.0508210735653023</v>
+        <v>0.03600979249187475</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7856695762381491</v>
+        <v>0.6132913594329921</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7119536146306444</v>
+        <v>1.182358274238794</v>
       </c>
       <c r="O22">
-        <v>2.163280425329418</v>
+        <v>2.786081434164259</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.30682180765092</v>
+        <v>1.703803775012659</v>
       </c>
       <c r="C23">
-        <v>0.4911933410939753</v>
+        <v>0.2546786214631425</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1107525541626657</v>
+        <v>0.2225716233681183</v>
       </c>
       <c r="F23">
-        <v>1.447428908886891</v>
+        <v>1.810218032953387</v>
       </c>
       <c r="G23">
-        <v>0.0007736699785494405</v>
+        <v>0.002423084244465027</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3265447611793704</v>
+        <v>0.6979347775820983</v>
       </c>
       <c r="J23">
-        <v>0.04964352735348854</v>
+        <v>0.035618659525678</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7591304249160373</v>
+        <v>0.6069030329337579</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.714988096912478</v>
+        <v>1.184562975948026</v>
       </c>
       <c r="O23">
-        <v>2.106941638217108</v>
+        <v>2.782318358494905</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.684968405910297</v>
+        <v>1.523078482786843</v>
       </c>
       <c r="C24">
-        <v>0.4345619724987557</v>
+        <v>0.2364728431116134</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1038820987881159</v>
+        <v>0.22242303577017</v>
       </c>
       <c r="F24">
-        <v>1.29891585172939</v>
+        <v>1.79274453676851</v>
       </c>
       <c r="G24">
-        <v>0.0007802606891948295</v>
+        <v>0.002427106074993928</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.314858636525706</v>
+        <v>0.7052200930513877</v>
       </c>
       <c r="J24">
-        <v>0.04518693310313182</v>
+        <v>0.03413503615985292</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6597286419938229</v>
+        <v>0.5830521960653527</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7288010052834792</v>
+        <v>1.193726552010254</v>
       </c>
       <c r="O24">
-        <v>1.904502060767584</v>
+        <v>2.771243204672828</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.019286298037855</v>
+        <v>1.328660474540527</v>
       </c>
       <c r="C25">
-        <v>0.3736629287697895</v>
+        <v>0.2166188030955709</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09694470963387403</v>
+        <v>0.2225333025993272</v>
       </c>
       <c r="F25">
-        <v>1.148606813550018</v>
+        <v>1.777546633888889</v>
       </c>
       <c r="G25">
-        <v>0.0007876342007766198</v>
+        <v>0.002431775025048189</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3064007632323609</v>
+        <v>0.7146716270864033</v>
       </c>
       <c r="J25">
-        <v>0.04038417680958162</v>
+        <v>0.03253054669856326</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5545381371990885</v>
+        <v>0.5580697114227888</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7482586738283246</v>
+        <v>1.205352360976008</v>
       </c>
       <c r="O25">
-        <v>1.706632141631388</v>
+        <v>2.76606609154075</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_231/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.185992460493708</v>
+        <v>2.532069920626327</v>
       </c>
       <c r="C2">
-        <v>0.2018160463589993</v>
+        <v>0.328853710800729</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2228484590543829</v>
+        <v>0.09220257834284595</v>
       </c>
       <c r="F2">
-        <v>1.769493182683249</v>
+        <v>1.045180307589419</v>
       </c>
       <c r="G2">
-        <v>0.002435500124603581</v>
+        <v>0.0007933095016513317</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7229978485463384</v>
+        <v>0.3032853970771399</v>
       </c>
       <c r="J2">
-        <v>0.03134599805285987</v>
+        <v>0.03684867850148521</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5403205836999803</v>
+        <v>0.4785001011810408</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.215414870328779</v>
+        <v>0.7661404568154779</v>
       </c>
       <c r="O2">
-        <v>2.768054110926158</v>
+        <v>1.575901919411621</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.089623443391474</v>
+        <v>2.203050496906599</v>
       </c>
       <c r="C3">
-        <v>0.1916701541959895</v>
+        <v>0.2984475927070633</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.223208674916858</v>
+        <v>0.08919796657697532</v>
       </c>
       <c r="F3">
-        <v>1.765991188807732</v>
+        <v>0.9790324445898193</v>
       </c>
       <c r="G3">
-        <v>0.002438205388448357</v>
+        <v>0.0007973179850266629</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7294918815187863</v>
+        <v>0.3029072578211007</v>
       </c>
       <c r="J3">
-        <v>0.03054146774887556</v>
+        <v>0.03445174243570648</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5286973746315198</v>
+        <v>0.4276989583042479</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.223174187351205</v>
+        <v>0.7803100156724057</v>
       </c>
       <c r="O3">
-        <v>2.77300894922729</v>
+        <v>1.495423012214246</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.030617253160074</v>
+        <v>2.001415540515438</v>
       </c>
       <c r="C4">
-        <v>0.1853848362532631</v>
+        <v>0.2797422731323138</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2235024210391394</v>
+        <v>0.08745046025051373</v>
       </c>
       <c r="F4">
-        <v>1.764805780481467</v>
+        <v>0.9401875842848995</v>
       </c>
       <c r="G4">
-        <v>0.002439956057839818</v>
+        <v>0.0007998619283800766</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7338986525173006</v>
+        <v>0.3034659572885445</v>
       </c>
       <c r="J4">
-        <v>0.03004670748128646</v>
+        <v>0.03297918278707712</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5217619443411508</v>
+        <v>0.3968215713516088</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.228402972053473</v>
+        <v>0.7899706532641986</v>
       </c>
       <c r="O4">
-        <v>2.777827604818015</v>
+        <v>1.449641562584134</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.006614844690176</v>
+        <v>1.919318775731227</v>
       </c>
       <c r="C5">
-        <v>0.1828096328717947</v>
+        <v>0.2721084961090412</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2236404153005598</v>
+        <v>0.08676200509195908</v>
       </c>
       <c r="F5">
-        <v>1.764565442499446</v>
+        <v>0.924778646585537</v>
       </c>
       <c r="G5">
-        <v>0.002440692074447609</v>
+        <v>0.0008009197758499871</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7357998420550516</v>
+        <v>0.3038834860049455</v>
       </c>
       <c r="J5">
-        <v>0.02984491084898977</v>
+        <v>0.03237885037189159</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5189865713680462</v>
+        <v>0.3843117510722891</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.23065070315684</v>
+        <v>0.7941417512816997</v>
       </c>
       <c r="O5">
-        <v>2.780237594672542</v>
+        <v>1.431846876431507</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.002631914665017</v>
+        <v>1.905690249804621</v>
       </c>
       <c r="C6">
-        <v>0.1823811872357055</v>
+        <v>0.2708401751514629</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2236644350539407</v>
+        <v>0.08664909418174638</v>
       </c>
       <c r="F6">
-        <v>1.764540197880066</v>
+        <v>0.9222447178013056</v>
       </c>
       <c r="G6">
-        <v>0.002440815656518748</v>
+        <v>0.0008010967197164244</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7361218966840823</v>
+        <v>0.3039640274075595</v>
       </c>
       <c r="J6">
-        <v>0.02981139243749453</v>
+        <v>0.03227914917457042</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5185288029784516</v>
+        <v>0.3822387376507805</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.231031005671774</v>
+        <v>0.7948483071490102</v>
       </c>
       <c r="O6">
-        <v>2.780664720301445</v>
+        <v>1.428942653537689</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.030293371603307</v>
+        <v>2.000308099482709</v>
       </c>
       <c r="C7">
-        <v>0.1853501622200184</v>
+        <v>0.2796393695136885</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2235042079658474</v>
+        <v>0.08744108071449652</v>
       </c>
       <c r="F7">
-        <v>1.764801556266562</v>
+        <v>0.939978102215079</v>
       </c>
       <c r="G7">
-        <v>0.002439965892526898</v>
+        <v>0.0007998761087270358</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7339238659782019</v>
+        <v>0.3034708311217109</v>
       </c>
       <c r="J7">
-        <v>0.03004398667859576</v>
+        <v>0.03297108757148592</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5217243083678511</v>
+        <v>0.3966525720271079</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.228432811980596</v>
+        <v>0.7900259666826557</v>
       </c>
       <c r="O7">
-        <v>2.777858299981744</v>
+        <v>1.449398155253931</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.152731187773952</v>
+        <v>2.418528318772644</v>
       </c>
       <c r="C8">
-        <v>0.1983293725892423</v>
+        <v>0.3183757413549131</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2229576237235555</v>
+        <v>0.09114588666593804</v>
       </c>
       <c r="F8">
-        <v>1.768085505455261</v>
+        <v>1.021990002146538</v>
       </c>
       <c r="G8">
-        <v>0.002436414337999345</v>
+        <v>0.0007946746864046598</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7251499011652882</v>
+        <v>0.3029853053822507</v>
       </c>
       <c r="J8">
-        <v>0.03106876700744365</v>
+        <v>0.03602235979586155</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5362712801052254</v>
+        <v>0.4609147141748338</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.21799395645639</v>
+        <v>0.7708223188121153</v>
       </c>
       <c r="O8">
-        <v>2.769393647389194</v>
+        <v>1.547366709983635</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.394078060659638</v>
+        <v>3.242976574467718</v>
       </c>
       <c r="C9">
-        <v>0.2233354278049546</v>
+        <v>0.3941639581067591</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2224599033821306</v>
+        <v>0.09922210013300869</v>
       </c>
       <c r="F9">
-        <v>1.782178690763473</v>
+        <v>1.198032889685791</v>
       </c>
       <c r="G9">
-        <v>0.002430157835330128</v>
+        <v>0.0007851133818417796</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7112752933673541</v>
+        <v>0.3087372994505131</v>
       </c>
       <c r="J9">
-        <v>0.03307154319162819</v>
+        <v>0.04200168514874392</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5663852243118725</v>
+        <v>0.5897310166104006</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.201203126200376</v>
+        <v>0.7411287248873819</v>
       </c>
       <c r="O9">
-        <v>2.766907636500292</v>
+        <v>1.77079103751737</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.572091891930029</v>
+        <v>3.853281198805973</v>
       </c>
       <c r="C10">
-        <v>0.2414314119836547</v>
+        <v>0.4499117668376584</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2224421351436447</v>
+        <v>0.1057075914642986</v>
       </c>
       <c r="F10">
-        <v>1.797199893658757</v>
+        <v>1.338385235915766</v>
       </c>
       <c r="G10">
-        <v>0.002425988559639066</v>
+        <v>0.0007784519403495186</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7031171650943548</v>
+        <v>0.3176814741482659</v>
       </c>
       <c r="J10">
-        <v>0.03453807366788197</v>
+        <v>0.04639606420353815</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5894675297765417</v>
+        <v>0.686532288727804</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.191102509413597</v>
+        <v>0.7246749450371865</v>
       </c>
       <c r="O10">
-        <v>2.773715526586045</v>
+        <v>1.957703173387472</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.653213790067866</v>
+        <v>4.132391642875973</v>
       </c>
       <c r="C11">
-        <v>0.2496030770558946</v>
+        <v>0.4753296539805092</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2225091654238192</v>
+        <v>0.1087914134018106</v>
       </c>
       <c r="F11">
-        <v>1.805047346032993</v>
+        <v>1.405039623851977</v>
       </c>
       <c r="G11">
-        <v>0.002424183736347953</v>
+        <v>0.0007754942100749759</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6998488852668885</v>
+        <v>0.3229248499133419</v>
       </c>
       <c r="J11">
-        <v>0.03520401774877158</v>
+        <v>0.04839642394517796</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6001742262661338</v>
+        <v>0.7311473458109958</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.186991424173286</v>
+        <v>0.7184746120071637</v>
       </c>
       <c r="O11">
-        <v>2.778694398062385</v>
+        <v>2.048553910873892</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.683951595097881</v>
+        <v>4.238337732218213</v>
       </c>
       <c r="C12">
-        <v>0.2526887040189649</v>
+        <v>0.4849668530606834</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.222545310475649</v>
+        <v>0.1099795722745078</v>
       </c>
       <c r="F12">
-        <v>1.808164780591838</v>
+        <v>1.430720393655747</v>
       </c>
       <c r="G12">
-        <v>0.002423513428689312</v>
+        <v>0.0007743840961492381</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6986750477728876</v>
+        <v>0.3250927454674155</v>
       </c>
       <c r="J12">
-        <v>0.03545600661263393</v>
+        <v>0.04915417343839223</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6042580336418553</v>
+        <v>0.748134823328229</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.185504109590383</v>
+        <v>0.7163222856474647</v>
       </c>
       <c r="O12">
-        <v>2.780850856539558</v>
+        <v>2.08387279165521</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.677330855470132</v>
+        <v>4.215508417756212</v>
       </c>
       <c r="C13">
-        <v>0.2520245528175167</v>
+        <v>0.4828907142120897</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2225370479639039</v>
+        <v>0.1097227548819859</v>
       </c>
       <c r="F13">
-        <v>1.807486903051071</v>
+        <v>1.425169393414777</v>
       </c>
       <c r="G13">
-        <v>0.002423657207928239</v>
+        <v>0.0007746227468530381</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.698925016023523</v>
+        <v>0.3246175165251586</v>
       </c>
       <c r="J13">
-        <v>0.0354017450399482</v>
+        <v>0.04899096603330833</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6033772087997704</v>
+        <v>0.7444719856210469</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.185821341443869</v>
+        <v>0.7167769467320326</v>
       </c>
       <c r="O13">
-        <v>2.780374361672671</v>
+        <v>2.076224205641836</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.655742243197381</v>
+        <v>4.141102578512516</v>
       </c>
       <c r="C14">
-        <v>0.2498571106898169</v>
+        <v>0.4761222495005484</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2225119236329007</v>
+        <v>0.108888748422622</v>
       </c>
       <c r="F14">
-        <v>1.80530089811765</v>
+        <v>1.407143355680518</v>
       </c>
       <c r="G14">
-        <v>0.002424128326751946</v>
+        <v>0.0007754026847696284</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.699751033938675</v>
+        <v>0.3230994692280404</v>
       </c>
       <c r="J14">
-        <v>0.03522475293410565</v>
+        <v>0.0484587589214307</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.600509615618364</v>
+        <v>0.7325430013714538</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.186867670277081</v>
+        <v>0.7182935535959487</v>
       </c>
       <c r="O14">
-        <v>2.778866376029328</v>
+        <v>2.051440796048553</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.642520977403649</v>
+        <v>4.095561053472011</v>
       </c>
       <c r="C15">
-        <v>0.2485283390753636</v>
+        <v>0.4719780463734935</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2224979346458191</v>
+        <v>0.1083805860956559</v>
       </c>
       <c r="F15">
-        <v>1.80398088902416</v>
+        <v>1.396160341432306</v>
       </c>
       <c r="G15">
-        <v>0.002424418610016894</v>
+        <v>0.000775881694224639</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7002653040058462</v>
+        <v>0.3221937827260817</v>
       </c>
       <c r="J15">
-        <v>0.03511631489276112</v>
+        <v>0.04813280212151838</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5987569544659124</v>
+        <v>0.7252485192051381</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.187517620405409</v>
+        <v>0.7192483284276179</v>
       </c>
       <c r="O15">
-        <v>2.777978005617967</v>
+        <v>2.036381911363748</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.566793099694848</v>
+        <v>3.835073818458</v>
       </c>
       <c r="C16">
-        <v>0.2408961496707036</v>
+        <v>0.4482521196557627</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2224392626866241</v>
+        <v>0.1055088427178639</v>
       </c>
       <c r="F16">
-        <v>1.796707447114116</v>
+        <v>1.334088768943786</v>
       </c>
       <c r="G16">
-        <v>0.00242610835107173</v>
+        <v>0.0007786466517248147</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7033396757043064</v>
+        <v>0.3173635707010689</v>
       </c>
       <c r="J16">
-        <v>0.03449452713729073</v>
+        <v>0.04626536828217453</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5887719528241888</v>
+        <v>0.683629039583451</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.191380904149852</v>
+        <v>0.7251069140232076</v>
       </c>
       <c r="O16">
-        <v>2.773428053244629</v>
+        <v>1.951889608992843</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.520371725443738</v>
+        <v>3.675679976495076</v>
       </c>
       <c r="C17">
-        <v>0.2361985105055453</v>
+        <v>0.43371437387583</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2224224798152541</v>
+        <v>0.1037821394908072</v>
       </c>
       <c r="F17">
-        <v>1.792505145277019</v>
+        <v>1.296754085619725</v>
       </c>
       <c r="G17">
-        <v>0.002427168421304415</v>
+        <v>0.0007803610939632918</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7053392111452155</v>
+        <v>0.3147105079533787</v>
       </c>
       <c r="J17">
-        <v>0.03411276279211251</v>
+        <v>0.04512014464374658</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5826991583610095</v>
+        <v>0.6582517575114224</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.193874729804492</v>
+        <v>0.7290374914146511</v>
       </c>
       <c r="O17">
-        <v>2.771119131734736</v>
+        <v>1.901601772045183</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.493684899582092</v>
+        <v>3.584137547812475</v>
       </c>
       <c r="C18">
-        <v>0.2334908861226666</v>
+        <v>0.4253578608151258</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2224198990855868</v>
+        <v>0.1028014798282619</v>
       </c>
       <c r="F18">
-        <v>1.790183560995942</v>
+        <v>1.275542077218219</v>
       </c>
       <c r="G18">
-        <v>0.002427786790019949</v>
+        <v>0.000781354061949571</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7065309722175535</v>
+        <v>0.313294239815427</v>
       </c>
       <c r="J18">
-        <v>0.03389307134806785</v>
+        <v>0.04446156378559252</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5792256949687982</v>
+        <v>0.6437093774755596</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.195354649334199</v>
+        <v>0.7314184713154148</v>
       </c>
       <c r="O18">
-        <v>2.769968210381222</v>
+        <v>1.873220659537822</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.484651575724286</v>
+        <v>3.553165157590911</v>
       </c>
       <c r="C19">
-        <v>0.2325731619326916</v>
+        <v>0.4225292782347196</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2224202411656115</v>
+        <v>0.1024715565176955</v>
       </c>
       <c r="F19">
-        <v>1.789413911408289</v>
+        <v>1.268403968801636</v>
       </c>
       <c r="G19">
-        <v>0.002427997645652661</v>
+        <v>0.0007816914585696106</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7069416377268176</v>
+        <v>0.3128331632463528</v>
       </c>
       <c r="J19">
-        <v>0.03381866916362597</v>
+        <v>0.04423859858717449</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5780529883404597</v>
+        <v>0.6387945709862208</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.195863548698767</v>
+        <v>0.7322449576269818</v>
       </c>
       <c r="O19">
-        <v>2.769608933170218</v>
+        <v>1.863702290823198</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.525311973608154</v>
+        <v>3.692633294591076</v>
       </c>
       <c r="C20">
-        <v>0.2366991696702598</v>
+        <v>0.4352613766249931</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2224235347038359</v>
+        <v>0.1039646485738679</v>
       </c>
       <c r="F20">
-        <v>1.792942607347939</v>
+        <v>1.300701063028271</v>
       </c>
       <c r="G20">
-        <v>0.002427054680755805</v>
+        <v>0.000780177881747888</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7051220426018219</v>
+        <v>0.3149814828006612</v>
       </c>
       <c r="J20">
-        <v>0.03415341385089121</v>
+        <v>0.04524204262637355</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5833436069415399</v>
+        <v>0.6609475620201408</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.193604545612999</v>
+        <v>0.7286065563635162</v>
       </c>
       <c r="O20">
-        <v>2.771346586967866</v>
+        <v>1.906898238211198</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.662082848599141</v>
+        <v>4.162950173488809</v>
       </c>
       <c r="C21">
-        <v>0.2504939810356746</v>
+        <v>0.4781099551541104</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2225190114872859</v>
+        <v>0.1091331533804336</v>
       </c>
       <c r="F21">
-        <v>1.805939025042292</v>
+        <v>1.412425789264731</v>
       </c>
       <c r="G21">
-        <v>0.002423989591559096</v>
+        <v>0.0007751733333570265</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6995066804256709</v>
+        <v>0.3235402960003029</v>
       </c>
       <c r="J21">
-        <v>0.03527674510504397</v>
+        <v>0.04861507354707939</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.601351101133119</v>
+        <v>0.7360442386262775</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.186558453642448</v>
+        <v>0.7178426902732156</v>
       </c>
       <c r="O21">
-        <v>2.779301947692204</v>
+        <v>2.058694780564565</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.751578707860745</v>
+        <v>4.471825289972173</v>
       </c>
       <c r="C22">
-        <v>0.2594583012410681</v>
+        <v>0.5061858567300703</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2226441230099816</v>
+        <v>0.1126304780798648</v>
       </c>
       <c r="F22">
-        <v>1.815282588000997</v>
+        <v>1.488029018616416</v>
       </c>
       <c r="G22">
-        <v>0.002422062939039792</v>
+        <v>0.0007719600911809034</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6962085756855032</v>
+        <v>0.3302037420009256</v>
       </c>
       <c r="J22">
-        <v>0.03600979249187475</v>
+        <v>0.05082107356534493</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6132913594329921</v>
+        <v>0.785669576238206</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.182358274238794</v>
+        <v>0.7119536146306444</v>
       </c>
       <c r="O22">
-        <v>2.786081434164259</v>
+        <v>2.16328042532939</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.703803775012659</v>
+        <v>4.30682180765092</v>
       </c>
       <c r="C23">
-        <v>0.2546786214631425</v>
+        <v>0.4911933410941174</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2225716233681183</v>
+        <v>0.1107525541626657</v>
       </c>
       <c r="F23">
-        <v>1.810218032953387</v>
+        <v>1.447428908886877</v>
       </c>
       <c r="G23">
-        <v>0.002423084244465027</v>
+        <v>0.0007736699784909563</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6979347775820983</v>
+        <v>0.3265447611793846</v>
       </c>
       <c r="J23">
-        <v>0.035618659525678</v>
+        <v>0.04964352735348498</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6069030329337579</v>
+        <v>0.7591304249159521</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.184562975948026</v>
+        <v>0.714988096912478</v>
       </c>
       <c r="O23">
-        <v>2.782318358494905</v>
+        <v>2.106941638217108</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.523078482786843</v>
+        <v>3.68496840591024</v>
       </c>
       <c r="C24">
-        <v>0.2364728431116134</v>
+        <v>0.4345619724987557</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.22242303577017</v>
+        <v>0.1038820987881195</v>
       </c>
       <c r="F24">
-        <v>1.79274453676851</v>
+        <v>1.298915851729376</v>
       </c>
       <c r="G24">
-        <v>0.002427106074993928</v>
+        <v>0.0007802606891681688</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7052200930513877</v>
+        <v>0.3148586365257202</v>
       </c>
       <c r="J24">
-        <v>0.03413503615985292</v>
+        <v>0.04518693310313182</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5830521960653527</v>
+        <v>0.6597286419938229</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.193726552010254</v>
+        <v>0.7288010052834721</v>
       </c>
       <c r="O24">
-        <v>2.771243204672828</v>
+        <v>1.904502060767555</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.328660474540527</v>
+        <v>3.019286298037798</v>
       </c>
       <c r="C25">
-        <v>0.2166188030955709</v>
+        <v>0.3736629287700453</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2225333025993272</v>
+        <v>0.0969447096338456</v>
       </c>
       <c r="F25">
-        <v>1.777546633888889</v>
+        <v>1.148606813550003</v>
       </c>
       <c r="G25">
-        <v>0.002431775025048189</v>
+        <v>0.0007876342007474483</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7146716270864033</v>
+        <v>0.3064007632323467</v>
       </c>
       <c r="J25">
-        <v>0.03253054669856326</v>
+        <v>0.04038417680952122</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5580697114227888</v>
+        <v>0.5545381371990743</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.205352360976008</v>
+        <v>0.7482586738283175</v>
       </c>
       <c r="O25">
-        <v>2.76606609154075</v>
+        <v>1.706632141631445</v>
       </c>
     </row>
   </sheetData>
